--- a/biology/Botanique/Forsythia_×intermedia/Forsythia_×intermedia.xlsx
+++ b/biology/Botanique/Forsythia_×intermedia/Forsythia_×intermedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Forsythia_%C3%97intermedia</t>
+          <t>Forsythia_×intermedia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Forsythia hybride ou Forsythia de Paris (Forsythia ×intermedia Zabel, 1885) est un arbuste ornemental aux fleurs jaunes de la famille des Oléacées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Forsythia_%C3%97intermedia</t>
+          <t>Forsythia_×intermedia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est l'hybride entre les espèces Forsythia suspensa et Forsythia viridissima. Les avantages des deux espèces ont été ainsi conjugués. Le Mimosa de Paris, nom populaire du Forsythia dans la France de la Belle Époque, est un de ses hybrides d'origine allemande. L'horticulteur et grainetier allemand Hermann Zabel formé à l'école forestière de Münden en Basse-Saxe, près de Hanovre, réalise une première production commerciale de ces forsythies avant 1880. Elle se répandit dans les jardins de l'Europe tempérée dans les décennies suivantes.
 Cette variété de Forsythia xintermedia, dont les anciennes variétés Hermann Sax, possède en général en partie basse un port raide, et ses rameaux supérieurs montrent une tendance à s'étaler, voire à retomber. Elle peut atteindre deux ou trois mètres de hauteur. Les fleurs, groupées par deux ou trois, sont d'un jaune foncé soutenu. Elles apparaissent en mars ou au début d'avril, avant la pousse du feuillage caduc. Les feuilles ovales ou oblongues, allongées ou lancéolées, sont souvent tripartites et sont longues parfois d'une douzaine de centimètre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Forsythia_%C3%97intermedia</t>
+          <t>Forsythia_×intermedia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cultivars parmi les plus communs en France sont : 'Boucle d'or', 'Lynwood', 'Marée d'Or', 'Mélée d'Or', 'Spectabilis' et 'Weekend'. 
 Il existe des sujets nains dont le cultivar 'Arnold Dwarf' qui se marcotte naturellement.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Forsythia_%C3%97intermedia</t>
+          <t>Forsythia_×intermedia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Généralités horticoles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mars et avril, mois de floraison, sont aussi recommandés pour la plantation printanière de l'espèce. La plantation automnale peut s'effectuer de septembre à décembre. Un arrosage copieux et régulier des jeunes plants peut s'avérer nécessaire.
 Une taille après la floraison, en mai, est recommandée pour assurer aux sujets adultes un bon renouvellement des tiges. Un tiers des plus vieilles tiges à ras du sol peut être coupé. Les haies sont aussi taillées durant cette période pour favoriser la floraison de l'année prochaine.
